--- a/Статус регистраций на БПК-2024.xlsx
+++ b/Статус регистраций на БПК-2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G334"/>
+  <dimension ref="A1:G341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12106,6 +12106,195 @@
         <v>0</v>
       </c>
     </row>
+    <row r="335">
+      <c r="A335" t="inlineStr"/>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Сидор</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Сидор</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>Сидор</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr"/>
+      <c r="G335" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr"/>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Сидор2</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>Сидор</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>Сидор</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr"/>
+      <c r="G336" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr"/>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Сидор3</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>Сидор</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>Сидор</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr"/>
+      <c r="G337" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr"/>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Сидорчук</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Иваныч</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>Московия</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>ИТ</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr"/>
+      <c r="G338" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr"/>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Сидорчуки</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>Иваныч</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>Московия</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>ИТ</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr"/>
+      <c r="G339" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr"/>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Русакова</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Валерия</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>РДД</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr"/>
+      <c r="G340" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr"/>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Русакова</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Валерия</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>РДД</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr"/>
+      <c r="G341" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
